--- a/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
+++ b/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4186DFF4-593D-475D-BEC0-40270595DF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8929CC81-85B2-4445-95DB-70EFB9CDFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Employee ID</t>
   </si>
@@ -149,6 +149,51 @@
   </si>
   <si>
     <t>Average of Salary</t>
+  </si>
+  <si>
+    <t>Average Salary by City</t>
+  </si>
+  <si>
+    <t>Average of Years of Service</t>
+  </si>
+  <si>
+    <t>Average years of service by Department</t>
+  </si>
+  <si>
+    <t>Employee Count by Gender</t>
+  </si>
+  <si>
+    <t>Count of Gender</t>
+  </si>
+  <si>
+    <t>Count of Employee ID</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Employees by Year of Joining</t>
   </si>
 </sst>
 </file>
@@ -225,9 +270,18 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I9" sheet="Data"/>
   </cacheSource>
-  <cacheFields count="9">
+  <cacheFields count="12">
     <cacheField name="Employee ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="108"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="108" count="8">
+        <n v="101"/>
+        <n v="102"/>
+        <n v="103"/>
+        <n v="104"/>
+        <n v="105"/>
+        <n v="106"/>
+        <n v="107"/>
+        <n v="108"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="First Name" numFmtId="0">
       <sharedItems/>
@@ -244,13 +298,26 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Gender" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="F"/>
+        <s v="M"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Salary" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70000" maxValue="130000"/>
     </cacheField>
     <cacheField name="Start Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-09-01T00:00:00" maxDate="2022-07-16T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-09-01T00:00:00" maxDate="2022-07-16T00:00:00" count="8">
+        <d v="2018-05-12T00:00:00"/>
+        <d v="2020-03-10T00:00:00"/>
+        <d v="2017-11-02T00:00:00"/>
+        <d v="2022-07-15T00:00:00"/>
+        <d v="2015-09-01T00:00:00"/>
+        <d v="2019-06-20T00:00:00"/>
+        <d v="2021-01-25T00:00:00"/>
+        <d v="2016-04-10T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="11"/>
     </cacheField>
     <cacheField name="Years of Service" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9"/>
@@ -262,6 +329,57 @@
         <s v="Port Harc."/>
         <s v="Kaduna"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="Months (Start Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="6">
+        <rangePr groupBy="months" startDate="2015-09-01T00:00:00" endDate="2022-07-16T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;9/1/2015"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;7/16/2022"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Quarters (Start Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="6">
+        <rangePr groupBy="quarters" startDate="2015-09-01T00:00:00" endDate="2022-07-16T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;9/1/2015"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;7/16/2022"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (Start Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="6">
+        <rangePr groupBy="years" startDate="2015-09-01T00:00:00" endDate="2022-07-16T00:00:00"/>
+        <groupItems count="10">
+          <s v="&lt;9/1/2015"/>
+          <s v="2015"/>
+          <s v="2016"/>
+          <s v="2017"/>
+          <s v="2018"/>
+          <s v="2019"/>
+          <s v="2020"/>
+          <s v="2021"/>
+          <s v="2022"/>
+          <s v="&gt;7/16/2022"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -275,90 +393,90 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
   <r>
-    <n v="101"/>
+    <x v="0"/>
     <s v="Tola"/>
     <s v="James"/>
     <x v="0"/>
-    <s v="F"/>
+    <x v="0"/>
     <n v="85000"/>
-    <d v="2018-05-12T00:00:00"/>
+    <x v="0"/>
     <n v="6"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="102"/>
+    <x v="1"/>
     <s v="Chidera"/>
     <s v="Okafor"/>
     <x v="1"/>
-    <s v="M"/>
+    <x v="1"/>
     <n v="120000"/>
-    <d v="2020-03-10T00:00:00"/>
+    <x v="1"/>
     <n v="4"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="103"/>
+    <x v="2"/>
     <s v="Amina"/>
     <s v="Bello"/>
     <x v="2"/>
-    <s v="F"/>
+    <x v="0"/>
     <n v="95000"/>
-    <d v="2017-11-02T00:00:00"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="104"/>
+    <x v="3"/>
     <s v="Obinna"/>
     <s v="Uche"/>
     <x v="3"/>
-    <s v="M"/>
+    <x v="1"/>
     <n v="70000"/>
-    <d v="2022-07-15T00:00:00"/>
+    <x v="3"/>
     <n v="2"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="105"/>
+    <x v="4"/>
     <s v="Femi"/>
     <s v="Adeyemi"/>
     <x v="1"/>
-    <s v="M"/>
+    <x v="1"/>
     <n v="130000"/>
-    <d v="2015-09-01T00:00:00"/>
+    <x v="4"/>
     <n v="9"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="106"/>
+    <x v="5"/>
     <s v="Samuel"/>
     <s v="Johnson"/>
     <x v="0"/>
-    <s v="M"/>
+    <x v="1"/>
     <n v="88000"/>
-    <d v="2019-06-20T00:00:00"/>
+    <x v="5"/>
     <n v="5"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="107"/>
+    <x v="6"/>
     <s v="Grace"/>
     <s v="Musa"/>
     <x v="2"/>
-    <s v="F"/>
+    <x v="0"/>
     <n v="110000"/>
-    <d v="2021-01-25T00:00:00"/>
+    <x v="6"/>
     <n v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="108"/>
+    <x v="7"/>
     <s v="Joy"/>
     <s v="Danjuma"/>
     <x v="3"/>
-    <s v="F"/>
+    <x v="0"/>
     <n v="75000"/>
-    <d v="2016-04-10T00:00:00"/>
+    <x v="7"/>
     <n v="8"/>
     <x v="3"/>
   </r>
@@ -366,10 +484,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A7B86F5-DE58-4B9C-A3DE-1F513B26FC48}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{550A6A8A-D537-4357-B95A-4C68C320AB7C}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A12:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -382,15 +500,464 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="9"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Employee ID" fld="0" subtotal="count" baseField="11" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB88CCA-BDB4-42CA-81B5-5BF2776C70BA}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Gender" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Years of Service" fld="7" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A7B86F5-DE58-4B9C-A3DE-1F513B26FC48}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -433,10 +1000,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE4E024-23E6-4236-84EC-FB9BE2FCE23A}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE4E024-23E6-4236-84EC-FB9BE2FCE23A}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -451,9 +1018,66 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -755,117 +1379,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5FCEF9-F040-4A83-BBEF-A958A02703D7}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6">
-        <v>205000</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="7">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
-        <v>173000</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7">
-        <v>72500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6">
-        <v>250000</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7">
-        <v>94333.333333333328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6">
-        <v>145000</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6">
-        <v>773000</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="7">
-        <v>96625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -1144,4 +1657,273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5FCEF9-F040-4A83-BBEF-A958A02703D7}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
+        <v>205000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7">
+        <v>125000</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>173000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7">
+        <v>72500</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>250000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7">
+        <v>94333.333333333328</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6">
+        <v>145000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
+        <v>95000</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6">
+        <v>773000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7">
+        <v>96625</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
+++ b/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8929CC81-85B2-4445-95DB-70EFB9CDFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49404B4-3D74-44C4-B333-FCA58BD53858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,28 +169,28 @@
     <t>Count of Employee ID</t>
   </si>
   <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Jul</t>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>Employees by Year of Joining</t>
@@ -501,7 +501,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+    <pivotField numFmtId="14" showAll="0">
       <items count="9">
         <item x="4"/>
         <item x="7"/>
@@ -546,7 +546,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="11">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -563,14 +563,17 @@
     </pivotField>
   </pivotFields>
   <rowFields count="2">
+    <field x="11"/>
     <field x="9"/>
-    <field x="6"/>
   </rowFields>
   <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
     <i>
@@ -586,10 +589,7 @@
       <x v="7"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>

--- a/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
+++ b/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49404B4-3D74-44C4-B333-FCA58BD53858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C490C7-316F-4F75-9901-7985D43D9BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>Employee ID</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Employees by Year of Joining</t>
+  </si>
+  <si>
+    <t>Months (Start Date)</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
   </si>
 </sst>
 </file>
@@ -484,6 +490,128 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9723EF62-7C46-47DE-B099-C41DA7AD4740}" name="PivotTable6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D13:E16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="15">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Salary" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{550A6A8A-D537-4357-B95A-4C68C320AB7C}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -613,7 +741,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB88CCA-BDB4-42CA-81B5-5BF2776C70BA}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -750,9 +878,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G3:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -840,7 +968,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -852,9 +980,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -875,7 +1000,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A7B86F5-DE58-4B9C-A3DE-1F513B26FC48}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -1000,7 +1125,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE4E024-23E6-4236-84EC-FB9BE2FCE23A}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -1664,15 +1789,15 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
@@ -1830,17 +1955,21 @@
       <c r="E8" s="7">
         <v>96625</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="6">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -1857,6 +1986,12 @@
       <c r="B13" s="6">
         <v>1</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1865,6 +2000,12 @@
       <c r="B14" s="6">
         <v>1</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6">
+        <v>110000</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -1873,6 +2014,12 @@
       <c r="B15" s="6">
         <v>1</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <v>88000</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -1881,6 +2028,12 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6">
+        <v>198000</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -1924,6 +2077,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
+++ b/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C490C7-316F-4F75-9901-7985D43D9BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A03A3-96F1-4775-9D3A-CE28025F0781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
+++ b/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A03A3-96F1-4775-9D3A-CE28025F0781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0799F69-A073-4F9E-B1C5-A5A4D95ED617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -252,8 +252,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +490,508 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9723EF62-7C46-47DE-B099-C41DA7AD4740}" name="PivotTable6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB88CCA-BDB4-42CA-81B5-5BF2776C70BA}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Gender" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Years of Service" fld="7" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A7B86F5-DE58-4B9C-A3DE-1F513B26FC48}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Salary" fld="5" subtotal="average" baseField="8" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE4E024-23E6-4236-84EC-FB9BE2FCE23A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Salary" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9723EF62-7C46-47DE-B099-C41DA7AD4740}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D13:E16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -611,8 +1112,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{550A6A8A-D537-4357-B95A-4C68C320AB7C}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{550A6A8A-D537-4357-B95A-4C68C320AB7C}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -728,507 +1229,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Employee ID" fld="0" subtotal="count" baseField="11" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB88CCA-BDB4-42CA-81B5-5BF2776C70BA}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Gender" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Years of Service" fld="7" subtotal="average" baseField="3" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A7B86F5-DE58-4B9C-A3DE-1F513B26FC48}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Salary" fld="5" subtotal="average" baseField="8" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE4E024-23E6-4236-84EC-FB9BE2FCE23A}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Salary" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1848,25 +1848,25 @@
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>205000</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>125000</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>5</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4">
         <v>4</v>
       </c>
     </row>
@@ -1874,25 +1874,25 @@
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>173000</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>72500</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>5.5</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5">
         <v>4</v>
       </c>
     </row>
@@ -1900,25 +1900,25 @@
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>250000</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>94333.333333333328</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>6.5</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <v>8</v>
       </c>
     </row>
@@ -1926,19 +1926,19 @@
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>145000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>95000</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>5</v>
       </c>
     </row>
@@ -1946,13 +1946,13 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>773000</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>96625</v>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1997,13 +1997,13 @@
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>110000</v>
       </c>
     </row>
@@ -2011,13 +2011,13 @@
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>88000</v>
       </c>
     </row>
@@ -2025,13 +2025,13 @@
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>198000</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>8</v>
       </c>
     </row>

--- a/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
+++ b/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0799F69-A073-4F9E-B1C5-A5A4D95ED617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F9916-484B-4B56-BC18-A290E7213244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Employee ID</t>
   </si>
@@ -490,265 +490,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB88CCA-BDB4-42CA-81B5-5BF2776C70BA}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Gender" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Years of Service" fld="7" subtotal="average" baseField="3" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A7B86F5-DE58-4B9C-A3DE-1F513B26FC48}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -873,7 +614,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE4E024-23E6-4236-84EC-FB9BE2FCE23A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -990,9 +731,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9723EF62-7C46-47DE-B099-C41DA7AD4740}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D13:E16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="D13:E17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1036,7 +777,7 @@
         <item h="1" x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
         <item x="6"/>
@@ -1080,12 +821,15 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1112,7 +856,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{550A6A8A-D537-4357-B95A-4C68C320AB7C}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -1229,6 +973,265 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Employee ID" fld="0" subtotal="count" baseField="11" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB88CCA-BDB4-42CA-81B5-5BF2776C70BA}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Gender" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Years of Service" fld="7" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2029,21 +2032,27 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E16" s="7">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7">
+        <v>318000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>

--- a/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
+++ b/stage_1/Pivot_Table_Basics/Pivot_table_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F9916-484B-4B56-BC18-A290E7213244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B34D70-2BE4-443C-ACFE-1A253C58FE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Employee ID</t>
   </si>
@@ -169,37 +169,28 @@
     <t>Count of Employee ID</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Employees by Year of Joining</t>
   </si>
   <si>
-    <t>Months (Start Date)</t>
-  </si>
-  <si>
-    <t>(Multiple Items)</t>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>70000-74999</t>
+  </si>
+  <si>
+    <t>75000-79999</t>
+  </si>
+  <si>
+    <t>85000-89999</t>
+  </si>
+  <si>
+    <t>95000-100000</t>
+  </si>
+  <si>
+    <t>&gt;100000</t>
+  </si>
+  <si>
+    <t>Grouping</t>
   </si>
 </sst>
 </file>
@@ -243,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -254,6 +245,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,7 +273,7 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I9" sheet="Data"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="9">
     <cacheField name="Employee ID" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="108" count="8">
         <n v="101"/>
@@ -310,7 +307,35 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Salary" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70000" maxValue="130000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70000" maxValue="130000" count="8">
+        <n v="85000"/>
+        <n v="120000"/>
+        <n v="95000"/>
+        <n v="70000"/>
+        <n v="130000"/>
+        <n v="88000"/>
+        <n v="110000"/>
+        <n v="75000"/>
+      </sharedItems>
+      <fieldGroup base="5">
+        <rangePr autoStart="0" autoEnd="0" startNum="40000" endNum="100000" groupInterval="5000"/>
+        <groupItems count="14">
+          <s v="&lt;40000"/>
+          <s v="40000-44999"/>
+          <s v="45000-49999"/>
+          <s v="50000-54999"/>
+          <s v="55000-59999"/>
+          <s v="60000-64999"/>
+          <s v="65000-69999"/>
+          <s v="70000-74999"/>
+          <s v="75000-79999"/>
+          <s v="80000-84999"/>
+          <s v="85000-89999"/>
+          <s v="90000-94999"/>
+          <s v="95000-100000"/>
+          <s v="&gt;100000"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
     <cacheField name="Start Date" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-09-01T00:00:00" maxDate="2022-07-16T00:00:00" count="8">
@@ -323,7 +348,6 @@
         <d v="2021-01-25T00:00:00"/>
         <d v="2016-04-10T00:00:00"/>
       </sharedItems>
-      <fieldGroup par="11"/>
     </cacheField>
     <cacheField name="Years of Service" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9"/>
@@ -335,57 +359,6 @@
         <s v="Port Harc."/>
         <s v="Kaduna"/>
       </sharedItems>
-    </cacheField>
-    <cacheField name="Months (Start Date)" numFmtId="0" databaseField="0">
-      <fieldGroup base="6">
-        <rangePr groupBy="months" startDate="2015-09-01T00:00:00" endDate="2022-07-16T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;9/1/2015"/>
-          <s v="Jan"/>
-          <s v="Feb"/>
-          <s v="Mar"/>
-          <s v="Apr"/>
-          <s v="May"/>
-          <s v="Jun"/>
-          <s v="Jul"/>
-          <s v="Aug"/>
-          <s v="Sep"/>
-          <s v="Oct"/>
-          <s v="Nov"/>
-          <s v="Dec"/>
-          <s v="&gt;7/16/2022"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Quarters (Start Date)" numFmtId="0" databaseField="0">
-      <fieldGroup base="6">
-        <rangePr groupBy="quarters" startDate="2015-09-01T00:00:00" endDate="2022-07-16T00:00:00"/>
-        <groupItems count="6">
-          <s v="&lt;9/1/2015"/>
-          <s v="Qtr1"/>
-          <s v="Qtr2"/>
-          <s v="Qtr3"/>
-          <s v="Qtr4"/>
-          <s v="&gt;7/16/2022"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Years (Start Date)" numFmtId="0" databaseField="0">
-      <fieldGroup base="6">
-        <rangePr groupBy="years" startDate="2015-09-01T00:00:00" endDate="2022-07-16T00:00:00"/>
-        <groupItems count="10">
-          <s v="&lt;9/1/2015"/>
-          <s v="2015"/>
-          <s v="2016"/>
-          <s v="2017"/>
-          <s v="2018"/>
-          <s v="2019"/>
-          <s v="2020"/>
-          <s v="2021"/>
-          <s v="2022"/>
-          <s v="&gt;7/16/2022"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -404,7 +377,7 @@
     <s v="James"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="85000"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="6"/>
     <x v="0"/>
@@ -415,7 +388,7 @@
     <s v="Okafor"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="120000"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="4"/>
     <x v="1"/>
@@ -426,7 +399,7 @@
     <s v="Bello"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="95000"/>
+    <x v="2"/>
     <x v="2"/>
     <n v="7"/>
     <x v="2"/>
@@ -437,7 +410,7 @@
     <s v="Uche"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="70000"/>
+    <x v="3"/>
     <x v="3"/>
     <n v="2"/>
     <x v="3"/>
@@ -448,7 +421,7 @@
     <s v="Adeyemi"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="130000"/>
+    <x v="4"/>
     <x v="4"/>
     <n v="9"/>
     <x v="1"/>
@@ -459,7 +432,7 @@
     <s v="Johnson"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="88000"/>
+    <x v="5"/>
     <x v="5"/>
     <n v="5"/>
     <x v="0"/>
@@ -470,7 +443,7 @@
     <s v="Musa"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="110000"/>
+    <x v="6"/>
     <x v="6"/>
     <n v="3"/>
     <x v="0"/>
@@ -481,7 +454,7 @@
     <s v="Danjuma"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="75000"/>
+    <x v="7"/>
     <x v="7"/>
     <n v="8"/>
     <x v="3"/>
@@ -490,9 +463,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A7B86F5-DE58-4B9C-A3DE-1F513B26FC48}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B977AA8-CCB8-4F66-B8D7-887C9F112B67}" name="PivotTable7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G13:H19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -501,36 +474,12 @@
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="3" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="1"/>
@@ -549,19 +498,82 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
         <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Gender" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9723EF62-7C46-47DE-B099-C41DA7AD4740}" name="PivotTable6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D13:E18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0">
+      <items count="15">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -572,6 +584,441 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Salary" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{550A6A8A-D537-4357-B95A-4C68C320AB7C}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A12:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Employee ID" fld="0" subtotal="count" baseField="11" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB88CCA-BDB4-42CA-81B5-5BF2776C70BA}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Gender" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Years of Service" fld="7" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A7B86F5-DE58-4B9C-A3DE-1F513B26FC48}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -614,10 +1061,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE4E024-23E6-4236-84EC-FB9BE2FCE23A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE4E024-23E6-4236-84EC-FB9BE2FCE23A}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+  <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -631,23 +1078,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField dataField="1" numFmtId="3" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="1"/>
@@ -666,32 +1097,21 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="9">
         <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item x="1"/>
         <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -718,520 +1138,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Salary" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9723EF62-7C46-47DE-B099-C41DA7AD4740}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D13:E17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="15">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Salary" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{550A6A8A-D537-4357-B95A-4C68C320AB7C}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A12:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="11"/>
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Employee ID" fld="0" subtotal="count" baseField="11" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB88CCA-BDB4-42CA-81B5-5BF2776C70BA}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Gender" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA639FF-DA08-4269-AC42-7A79C47E1F1B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Years of Service" fld="7" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1791,16 +1697,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5FCEF9-F040-4A83-BBEF-A958A02703D7}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
@@ -1851,7 +1757,7 @@
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>205000</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1863,13 +1769,13 @@
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1877,7 +1783,7 @@
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>173000</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1889,13 +1795,13 @@
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>5.5</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1903,7 +1809,7 @@
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>250000</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1915,13 +1821,13 @@
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>6.5</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1929,7 +1835,7 @@
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>145000</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1941,7 +1847,7 @@
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1949,7 +1855,7 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>773000</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1961,17 +1867,20 @@
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1983,10 +1892,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="8">
+        <v>42248</v>
+      </c>
+      <c r="B13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1995,97 +1904,145 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="8">
+        <v>42470</v>
+      </c>
+      <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="7">
-        <v>110000</v>
+        <v>205000</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="8">
+        <v>43041</v>
+      </c>
+      <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="7">
-        <v>88000</v>
+        <v>173000</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="8">
+        <v>43232</v>
+      </c>
+      <c r="B16" s="7">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="7">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+        <v>250000</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B17">
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>43636</v>
+      </c>
+      <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7">
+        <v>145000</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>43900</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="7">
-        <v>318000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18">
+      <c r="E18" s="7">
+        <v>773000</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>44221</v>
+      </c>
+      <c r="B19" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19">
+      <c r="G19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>44757</v>
+      </c>
+      <c r="B20" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>